--- a/tx_fifo_timing_mux6_invz_tsmc2p_meas.xlsx
+++ b/tx_fifo_timing_mux6_invz_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="79">
   <si>
     <t>Process</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>typical</t>
-  </si>
-  <si>
-    <t>error</t>
   </si>
   <si>
     <t>n/a</t>
@@ -695,19 +692,19 @@
       <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>25</v>
+      <c r="L2">
+        <v>2.72728E-11</v>
+      </c>
+      <c r="M2">
+        <v>2.79449E-11</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -731,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -739,19 +736,19 @@
       <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>25</v>
+      <c r="L3">
+        <v>2.71714E-11</v>
+      </c>
+      <c r="M3">
+        <v>2.74241E-11</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -775,7 +772,7 @@
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
@@ -783,718 +780,718 @@
       <c r="K4" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>25</v>
+      <c r="L4">
+        <v>2.71805E-11</v>
+      </c>
+      <c r="M4">
+        <v>2.86244E-11</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>37</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
         <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
       </c>
       <c r="K5" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>25</v>
+      <c r="L5">
+        <v>4.05563E-11</v>
+      </c>
+      <c r="M5">
+        <v>4.38677E-11</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
         <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
       </c>
       <c r="K6" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>25</v>
+      <c r="L6">
+        <v>3.86373E-11</v>
+      </c>
+      <c r="M6">
+        <v>4.2657E-11</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
       </c>
       <c r="K7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>25</v>
+      <c r="L7">
+        <v>3.01204E-11</v>
+      </c>
+      <c r="M7">
+        <v>3.15507E-11</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>37</v>
       </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>25</v>
+      <c r="L8">
+        <v>3.02476E-11</v>
+      </c>
+      <c r="M8">
+        <v>3.27248E-11</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>50</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
         <v>51</v>
       </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>25</v>
+      <c r="L9">
+        <v>2.44227E-11</v>
+      </c>
+      <c r="M9">
+        <v>2.41038E-11</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>50</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
         <v>51</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>25</v>
+      <c r="L10">
+        <v>2.45994E-11</v>
+      </c>
+      <c r="M10">
+        <v>2.52636E-11</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>49</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>50</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
         <v>51</v>
       </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>25</v>
+      <c r="L11">
+        <v>2.0433E-11</v>
+      </c>
+      <c r="M11">
+        <v>2.03708E-11</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>50</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
         <v>51</v>
       </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>25</v>
+      <c r="L12">
+        <v>2.12011E-11</v>
+      </c>
+      <c r="M12">
+        <v>2.20776E-11</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
         <v>59</v>
       </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>25</v>
+      <c r="L13">
+        <v>3.1026E-11</v>
+      </c>
+      <c r="M13">
+        <v>3.62878E-11</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
         <v>59</v>
       </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>25</v>
+      <c r="L14">
+        <v>3.04205E-11</v>
+      </c>
+      <c r="M14">
+        <v>3.64107E-11</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>25</v>
+      <c r="L15">
+        <v>2.46059E-11</v>
+      </c>
+      <c r="M15">
+        <v>2.80105E-11</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>25</v>
+      <c r="L16">
+        <v>2.49877E-11</v>
+      </c>
+      <c r="M16">
+        <v>2.94652E-11</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
       <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
         <v>48</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>49</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>50</v>
       </c>
-      <c r="H17" t="s">
-        <v>51</v>
-      </c>
       <c r="I17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>25</v>
+        <v>59</v>
+      </c>
+      <c r="L17">
+        <v>3.28964E-11</v>
+      </c>
+      <c r="M17">
+        <v>-1.70989E-10</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
       <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
         <v>48</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>49</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>50</v>
       </c>
-      <c r="H18" t="s">
-        <v>51</v>
-      </c>
       <c r="I18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>25</v>
+        <v>59</v>
+      </c>
+      <c r="L18">
+        <v>3.19069E-11</v>
+      </c>
+      <c r="M18">
+        <v>-1.70377E-10</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>66</v>
       </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
       <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
         <v>48</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>49</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>50</v>
       </c>
-      <c r="H19" t="s">
-        <v>51</v>
-      </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>25</v>
+        <v>59</v>
+      </c>
+      <c r="L19">
+        <v>2.57807E-11</v>
+      </c>
+      <c r="M19">
+        <v>-1.77001E-10</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
         <v>65</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>66</v>
       </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
       <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
         <v>48</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>49</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>50</v>
       </c>
-      <c r="H20" t="s">
-        <v>51</v>
-      </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>25</v>
+        <v>59</v>
+      </c>
+      <c r="L20">
+        <v>2.61879E-11</v>
+      </c>
+      <c r="M20">
+        <v>-1.75294E-10</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="1" customFormat="1">
@@ -1543,92 +1540,92 @@
     </row>
     <row r="22" spans="1:14" s="1" customFormat="1">
       <c r="K22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2.0433E-11</v>
+      </c>
+      <c r="M22" s="1">
+        <v>-1.77001E-10</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1">
       <c r="K23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>26</v>
+        <v>71</v>
+      </c>
+      <c r="L23" s="1">
+        <v>4.05563E-11</v>
+      </c>
+      <c r="M23" s="1">
+        <v>4.38677E-11</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1">
       <c r="K24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1">
       <c r="K25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="1" customFormat="1">
       <c r="K26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="1" customFormat="1">
       <c r="K27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="1" customFormat="1">
       <c r="K28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
+      </c>
+      <c r="L28" s="1">
+        <v>2.840286842105264E-11</v>
+      </c>
+      <c r="M28" s="1">
+        <v>-1.246723157894736E-11</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="1" customFormat="1">
       <c r="K29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>26</v>
+        <v>77</v>
+      </c>
+      <c r="L29" s="1">
+        <v>5.078678300404818E-12</v>
+      </c>
+      <c r="M29" s="1">
+        <v>8.333488762495101E-11</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="1" customFormat="1">
       <c r="K30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
+      </c>
+      <c r="L30" s="1">
+        <v>17.88086409131982</v>
+      </c>
+      <c r="M30" s="1">
+        <v>668.4313762621803</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="1" customFormat="1"/>
